--- a/stock/data/CJ제일제당.xlsx
+++ b/stock/data/CJ제일제당.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4079"/>
+  <dimension ref="A1:G4112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94262,10 +94262,769 @@
         <v>294000</v>
       </c>
       <c r="F4079" t="n">
-        <v>21267</v>
+        <v>21325</v>
       </c>
       <c r="G4079" t="n">
         <v>0.684931506849315</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B4080" t="n">
+        <v>295000</v>
+      </c>
+      <c r="C4080" t="n">
+        <v>315000</v>
+      </c>
+      <c r="D4080" t="n">
+        <v>292500</v>
+      </c>
+      <c r="E4080" t="n">
+        <v>311000</v>
+      </c>
+      <c r="F4080" t="n">
+        <v>86021</v>
+      </c>
+      <c r="G4080" t="n">
+        <v>5.782312925170068</v>
+      </c>
+    </row>
+    <row r="4081">
+      <c r="A4081" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B4081" t="n">
+        <v>308000</v>
+      </c>
+      <c r="C4081" t="n">
+        <v>308000</v>
+      </c>
+      <c r="D4081" t="n">
+        <v>303500</v>
+      </c>
+      <c r="E4081" t="n">
+        <v>304500</v>
+      </c>
+      <c r="F4081" t="n">
+        <v>23657</v>
+      </c>
+      <c r="G4081" t="n">
+        <v>-2.090032154340836</v>
+      </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B4082" t="n">
+        <v>309000</v>
+      </c>
+      <c r="C4082" t="n">
+        <v>321000</v>
+      </c>
+      <c r="D4082" t="n">
+        <v>308500</v>
+      </c>
+      <c r="E4082" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F4082" t="n">
+        <v>111430</v>
+      </c>
+      <c r="G4082" t="n">
+        <v>4.105090311986864</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B4083" t="n">
+        <v>320000</v>
+      </c>
+      <c r="C4083" t="n">
+        <v>327000</v>
+      </c>
+      <c r="D4083" t="n">
+        <v>315500</v>
+      </c>
+      <c r="E4083" t="n">
+        <v>323500</v>
+      </c>
+      <c r="F4083" t="n">
+        <v>66480</v>
+      </c>
+      <c r="G4083" t="n">
+        <v>2.050473186119874</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B4084" t="n">
+        <v>320000</v>
+      </c>
+      <c r="C4084" t="n">
+        <v>324000</v>
+      </c>
+      <c r="D4084" t="n">
+        <v>318000</v>
+      </c>
+      <c r="E4084" t="n">
+        <v>321000</v>
+      </c>
+      <c r="F4084" t="n">
+        <v>36957</v>
+      </c>
+      <c r="G4084" t="n">
+        <v>-0.7727975270479135</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B4085" t="n">
+        <v>321000</v>
+      </c>
+      <c r="C4085" t="n">
+        <v>324000</v>
+      </c>
+      <c r="D4085" t="n">
+        <v>317000</v>
+      </c>
+      <c r="E4085" t="n">
+        <v>318000</v>
+      </c>
+      <c r="F4085" t="n">
+        <v>27463</v>
+      </c>
+      <c r="G4085" t="n">
+        <v>-0.9345794392523363</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B4086" t="n">
+        <v>319000</v>
+      </c>
+      <c r="C4086" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D4086" t="n">
+        <v>315000</v>
+      </c>
+      <c r="E4086" t="n">
+        <v>315500</v>
+      </c>
+      <c r="F4086" t="n">
+        <v>13920</v>
+      </c>
+      <c r="G4086" t="n">
+        <v>-0.7861635220125787</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B4087" t="n">
+        <v>311000</v>
+      </c>
+      <c r="C4087" t="n">
+        <v>317500</v>
+      </c>
+      <c r="D4087" t="n">
+        <v>309000</v>
+      </c>
+      <c r="E4087" t="n">
+        <v>315000</v>
+      </c>
+      <c r="F4087" t="n">
+        <v>30440</v>
+      </c>
+      <c r="G4087" t="n">
+        <v>-0.1584786053882726</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B4088" t="n">
+        <v>314000</v>
+      </c>
+      <c r="C4088" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D4088" t="n">
+        <v>312000</v>
+      </c>
+      <c r="E4088" t="n">
+        <v>314000</v>
+      </c>
+      <c r="F4088" t="n">
+        <v>28057</v>
+      </c>
+      <c r="G4088" t="n">
+        <v>-0.3174603174603174</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B4089" t="n">
+        <v>314000</v>
+      </c>
+      <c r="C4089" t="n">
+        <v>328000</v>
+      </c>
+      <c r="D4089" t="n">
+        <v>313500</v>
+      </c>
+      <c r="E4089" t="n">
+        <v>326000</v>
+      </c>
+      <c r="F4089" t="n">
+        <v>83014</v>
+      </c>
+      <c r="G4089" t="n">
+        <v>3.821656050955414</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B4090" t="n">
+        <v>326000</v>
+      </c>
+      <c r="C4090" t="n">
+        <v>338000</v>
+      </c>
+      <c r="D4090" t="n">
+        <v>322000</v>
+      </c>
+      <c r="E4090" t="n">
+        <v>332500</v>
+      </c>
+      <c r="F4090" t="n">
+        <v>138068</v>
+      </c>
+      <c r="G4090" t="n">
+        <v>1.993865030674847</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B4091" t="n">
+        <v>335000</v>
+      </c>
+      <c r="C4091" t="n">
+        <v>338000</v>
+      </c>
+      <c r="D4091" t="n">
+        <v>327000</v>
+      </c>
+      <c r="E4091" t="n">
+        <v>327500</v>
+      </c>
+      <c r="F4091" t="n">
+        <v>45500</v>
+      </c>
+      <c r="G4091" t="n">
+        <v>-1.503759398496241</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B4092" t="n">
+        <v>332500</v>
+      </c>
+      <c r="C4092" t="n">
+        <v>335000</v>
+      </c>
+      <c r="D4092" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E4092" t="n">
+        <v>332000</v>
+      </c>
+      <c r="F4092" t="n">
+        <v>43057</v>
+      </c>
+      <c r="G4092" t="n">
+        <v>1.374045801526718</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B4093" t="n">
+        <v>331000</v>
+      </c>
+      <c r="C4093" t="n">
+        <v>338000</v>
+      </c>
+      <c r="D4093" t="n">
+        <v>327500</v>
+      </c>
+      <c r="E4093" t="n">
+        <v>335000</v>
+      </c>
+      <c r="F4093" t="n">
+        <v>44438</v>
+      </c>
+      <c r="G4093" t="n">
+        <v>0.9036144578313252</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B4094" t="n">
+        <v>338500</v>
+      </c>
+      <c r="C4094" t="n">
+        <v>347000</v>
+      </c>
+      <c r="D4094" t="n">
+        <v>335500</v>
+      </c>
+      <c r="E4094" t="n">
+        <v>347000</v>
+      </c>
+      <c r="F4094" t="n">
+        <v>86243</v>
+      </c>
+      <c r="G4094" t="n">
+        <v>3.582089552238806</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B4095" t="n">
+        <v>345000</v>
+      </c>
+      <c r="C4095" t="n">
+        <v>346500</v>
+      </c>
+      <c r="D4095" t="n">
+        <v>339500</v>
+      </c>
+      <c r="E4095" t="n">
+        <v>341500</v>
+      </c>
+      <c r="F4095" t="n">
+        <v>47028</v>
+      </c>
+      <c r="G4095" t="n">
+        <v>-1.585014409221902</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B4096" t="n">
+        <v>341000</v>
+      </c>
+      <c r="C4096" t="n">
+        <v>341500</v>
+      </c>
+      <c r="D4096" t="n">
+        <v>333500</v>
+      </c>
+      <c r="E4096" t="n">
+        <v>337000</v>
+      </c>
+      <c r="F4096" t="n">
+        <v>47050</v>
+      </c>
+      <c r="G4096" t="n">
+        <v>-1.317715959004393</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B4097" t="n">
+        <v>334000</v>
+      </c>
+      <c r="C4097" t="n">
+        <v>341000</v>
+      </c>
+      <c r="D4097" t="n">
+        <v>332500</v>
+      </c>
+      <c r="E4097" t="n">
+        <v>332500</v>
+      </c>
+      <c r="F4097" t="n">
+        <v>33374</v>
+      </c>
+      <c r="G4097" t="n">
+        <v>-1.335311572700297</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B4098" t="n">
+        <v>335500</v>
+      </c>
+      <c r="C4098" t="n">
+        <v>338500</v>
+      </c>
+      <c r="D4098" t="n">
+        <v>329000</v>
+      </c>
+      <c r="E4098" t="n">
+        <v>337000</v>
+      </c>
+      <c r="F4098" t="n">
+        <v>20733</v>
+      </c>
+      <c r="G4098" t="n">
+        <v>1.353383458646616</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B4099" t="n">
+        <v>339500</v>
+      </c>
+      <c r="C4099" t="n">
+        <v>341500</v>
+      </c>
+      <c r="D4099" t="n">
+        <v>334000</v>
+      </c>
+      <c r="E4099" t="n">
+        <v>334500</v>
+      </c>
+      <c r="F4099" t="n">
+        <v>29627</v>
+      </c>
+      <c r="G4099" t="n">
+        <v>-0.741839762611276</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B4100" t="n">
+        <v>335500</v>
+      </c>
+      <c r="C4100" t="n">
+        <v>342500</v>
+      </c>
+      <c r="D4100" t="n">
+        <v>335500</v>
+      </c>
+      <c r="E4100" t="n">
+        <v>337000</v>
+      </c>
+      <c r="F4100" t="n">
+        <v>42984</v>
+      </c>
+      <c r="G4100" t="n">
+        <v>0.7473841554559043</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B4101" t="n">
+        <v>334500</v>
+      </c>
+      <c r="C4101" t="n">
+        <v>345500</v>
+      </c>
+      <c r="D4101" t="n">
+        <v>331500</v>
+      </c>
+      <c r="E4101" t="n">
+        <v>342500</v>
+      </c>
+      <c r="F4101" t="n">
+        <v>48794</v>
+      </c>
+      <c r="G4101" t="n">
+        <v>1.632047477744807</v>
+      </c>
+    </row>
+    <row r="4102">
+      <c r="A4102" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B4102" t="n">
+        <v>345500</v>
+      </c>
+      <c r="C4102" t="n">
+        <v>345500</v>
+      </c>
+      <c r="D4102" t="n">
+        <v>339000</v>
+      </c>
+      <c r="E4102" t="n">
+        <v>340000</v>
+      </c>
+      <c r="F4102" t="n">
+        <v>25405</v>
+      </c>
+      <c r="G4102" t="n">
+        <v>-0.7299270072992701</v>
+      </c>
+    </row>
+    <row r="4103">
+      <c r="A4103" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B4103" t="n">
+        <v>347000</v>
+      </c>
+      <c r="C4103" t="n">
+        <v>347000</v>
+      </c>
+      <c r="D4103" t="n">
+        <v>336500</v>
+      </c>
+      <c r="E4103" t="n">
+        <v>337500</v>
+      </c>
+      <c r="F4103" t="n">
+        <v>32283</v>
+      </c>
+      <c r="G4103" t="n">
+        <v>-0.7352941176470588</v>
+      </c>
+    </row>
+    <row r="4104">
+      <c r="A4104" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B4104" t="n">
+        <v>341000</v>
+      </c>
+      <c r="C4104" t="n">
+        <v>345500</v>
+      </c>
+      <c r="D4104" t="n">
+        <v>338000</v>
+      </c>
+      <c r="E4104" t="n">
+        <v>340000</v>
+      </c>
+      <c r="F4104" t="n">
+        <v>25369</v>
+      </c>
+      <c r="G4104" t="n">
+        <v>0.7407407407407408</v>
+      </c>
+    </row>
+    <row r="4105">
+      <c r="A4105" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B4105" t="n">
+        <v>342000</v>
+      </c>
+      <c r="C4105" t="n">
+        <v>342500</v>
+      </c>
+      <c r="D4105" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E4105" t="n">
+        <v>334000</v>
+      </c>
+      <c r="F4105" t="n">
+        <v>38911</v>
+      </c>
+      <c r="G4105" t="n">
+        <v>-1.764705882352941</v>
+      </c>
+    </row>
+    <row r="4106">
+      <c r="A4106" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B4106" t="n">
+        <v>337500</v>
+      </c>
+      <c r="C4106" t="n">
+        <v>339000</v>
+      </c>
+      <c r="D4106" t="n">
+        <v>331000</v>
+      </c>
+      <c r="E4106" t="n">
+        <v>336000</v>
+      </c>
+      <c r="F4106" t="n">
+        <v>25955</v>
+      </c>
+      <c r="G4106" t="n">
+        <v>0.5988023952095809</v>
+      </c>
+    </row>
+    <row r="4107">
+      <c r="A4107" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B4107" t="n">
+        <v>339500</v>
+      </c>
+      <c r="C4107" t="n">
+        <v>352500</v>
+      </c>
+      <c r="D4107" t="n">
+        <v>337000</v>
+      </c>
+      <c r="E4107" t="n">
+        <v>350000</v>
+      </c>
+      <c r="F4107" t="n">
+        <v>75133</v>
+      </c>
+      <c r="G4107" t="n">
+        <v>4.166666666666666</v>
+      </c>
+    </row>
+    <row r="4108">
+      <c r="A4108" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B4108" t="n">
+        <v>351000</v>
+      </c>
+      <c r="C4108" t="n">
+        <v>354000</v>
+      </c>
+      <c r="D4108" t="n">
+        <v>329500</v>
+      </c>
+      <c r="E4108" t="n">
+        <v>332500</v>
+      </c>
+      <c r="F4108" t="n">
+        <v>147510</v>
+      </c>
+      <c r="G4108" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4109">
+      <c r="A4109" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B4109" t="n">
+        <v>334500</v>
+      </c>
+      <c r="C4109" t="n">
+        <v>339500</v>
+      </c>
+      <c r="D4109" t="n">
+        <v>328500</v>
+      </c>
+      <c r="E4109" t="n">
+        <v>329000</v>
+      </c>
+      <c r="F4109" t="n">
+        <v>47559</v>
+      </c>
+      <c r="G4109" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+    </row>
+    <row r="4110">
+      <c r="A4110" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B4110" t="n">
+        <v>332500</v>
+      </c>
+      <c r="C4110" t="n">
+        <v>345000</v>
+      </c>
+      <c r="D4110" t="n">
+        <v>332500</v>
+      </c>
+      <c r="E4110" t="n">
+        <v>333500</v>
+      </c>
+      <c r="F4110" t="n">
+        <v>79396</v>
+      </c>
+      <c r="G4110" t="n">
+        <v>1.367781155015197</v>
+      </c>
+    </row>
+    <row r="4111">
+      <c r="A4111" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B4111" t="n">
+        <v>339000</v>
+      </c>
+      <c r="C4111" t="n">
+        <v>345500</v>
+      </c>
+      <c r="D4111" t="n">
+        <v>334500</v>
+      </c>
+      <c r="E4111" t="n">
+        <v>342000</v>
+      </c>
+      <c r="F4111" t="n">
+        <v>52533</v>
+      </c>
+      <c r="G4111" t="n">
+        <v>2.548725637181409</v>
+      </c>
+    </row>
+    <row r="4112">
+      <c r="A4112" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B4112" t="n">
+        <v>345500</v>
+      </c>
+      <c r="C4112" t="n">
+        <v>345500</v>
+      </c>
+      <c r="D4112" t="n">
+        <v>338000</v>
+      </c>
+      <c r="E4112" t="n">
+        <v>339000</v>
+      </c>
+      <c r="F4112" t="n">
+        <v>33240</v>
+      </c>
+      <c r="G4112" t="n">
+        <v>-0.8771929824561403</v>
       </c>
     </row>
   </sheetData>
